--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985EF28-776D-47CD-B7B9-EB517FB20D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CFC2B-3C40-40E7-A4B6-1D6B1A87CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="4764" windowWidth="20772" windowHeight="19008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18792" yWindow="5784" windowWidth="16164" windowHeight="19008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:D55"/>
+  <dimension ref="B4:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,12 +548,12 @@
     <col min="4" max="4" width="40.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -577,17 +577,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -595,32 +595,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -628,32 +643,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -661,22 +676,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>18</v>
       </c>
@@ -684,7 +699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="3:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>

--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CFC2B-3C40-40E7-A4B6-1D6B1A87CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DF487-1562-4784-BDF3-1675E2A3F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18792" yWindow="5784" windowWidth="16164" windowHeight="19008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22092" yWindow="6864" windowWidth="22548" windowHeight="17316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>CSZLUtils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个文件夹存储把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测的时候自动remix同一个fe的模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E55"/>
+  <dimension ref="B4:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,26 +655,41 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -691,105 +714,115 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="3:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>36</v>
       </c>
     </row>

--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DF487-1562-4784-BDF3-1675E2A3F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AF4D2E-7DDB-4603-90AA-03ABE4618C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22092" yWindow="6864" windowWidth="22548" windowHeight="17316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23808" yWindow="6840" windowWidth="22548" windowHeight="17316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="B4:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,27 +727,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -755,27 +758,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -783,17 +795,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>37</v>
       </c>

--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AF4D2E-7DDB-4603-90AA-03ABE4618C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951316BC-1B71-49CD-A394-8B8E56E64209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23808" yWindow="6840" windowWidth="22548" windowHeight="17316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12312" yWindow="2484" windowWidth="28188" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>预测的时候自动remix同一个fe的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测的日期也要加到file名中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E57"/>
+  <dimension ref="B4:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,30 +735,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E33">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -758,7 +772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
@@ -766,7 +780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
@@ -774,7 +788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
@@ -782,12 +796,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -795,7 +809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
@@ -803,7 +817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
@@ -811,7 +825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>37</v>
       </c>

--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951316BC-1B71-49CD-A394-8B8E56E64209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F21E5-4DF6-4DD8-9325-0669E9A0EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12312" yWindow="2484" windowWidth="28188" windowHeight="21648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15624" yWindow="4452" windowWidth="30084" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="B4:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/CSZL_Framework2022/CSZL_2022设计文档.xlsx
+++ b/CSZL_Framework2022/CSZL_2022设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMC_home01\source\repos\CSZL_2022\CSZL_Framework2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F21E5-4DF6-4DD8-9325-0669E9A0EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132093C-A901-4ADC-AF47-26253D32D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15624" yWindow="4452" windowWidth="30084" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>预测的日期也要加到file名中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加接受参数并执行对应的工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于预测进行操作提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G57"/>
+  <dimension ref="B4:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
@@ -672,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -680,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -688,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -740,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
         <v>48</v>
@@ -753,36 +761,45 @@
       <c r="D34" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -790,7 +807,7 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -798,63 +815,79 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="E47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>36</v>
       </c>
     </row>
